--- a/Instances/05_Lumpy.xlsx
+++ b/Instances/05_Lumpy.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22850</v>
+        <v>28606</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>3861.39</v>
+        <v>14.73</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>28510</v>
+        <v>23729</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>2921.13</v>
+        <v>15.62</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1236</v>
+        <v>1633</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>186.5</v>
+        <v>0.72</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>15595</v>
+        <v>13595</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>1546.27</v>
+        <v>7.03</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1224</v>
+        <v>997</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>153.93</v>
+        <v>0.59</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10502</v>
+        <v>11498</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>1379.53</v>
+        <v>6.03</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>31560</v>
+        <v>20089</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>3546.36</v>
+        <v>12.12</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17418</v>
+        <v>25972</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>3561.62</v>
+        <v>14.18</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>28498</v>
+        <v>16957</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>2699.02</v>
+        <v>13.79</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>27842</v>
+        <v>29095</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>3614.96</v>
+        <v>13.75</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>31936</v>
+        <v>29287</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>2796.73</v>
+        <v>11.06</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>16628</v>
+        <v>29332</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>2968.49</v>
+        <v>13.46</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1170</v>
+        <v>1107</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>199.77</v>
+        <v>0.77</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>18133</v>
+        <v>13652</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>1537.59</v>
+        <v>8.18</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>10435</v>
+        <v>14966</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>1957.01</v>
+        <v>6.95</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>31697</v>
+        <v>29797</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>3031.77</v>
+        <v>13.61</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>887</v>
+        <v>1268</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>139.05</v>
+        <v>0.54</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7410</v>
+        <v>10082</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>1408.34</v>
+        <v>5.59</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>11302</v>
+        <v>11670</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>1370.62</v>
+        <v>4.17</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>519</v>
+        <v>632</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>65.63</v>
+        <v>0.28</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>736</v>
+        <v>658</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>110.83</v>
+        <v>0.42</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5614</v>
+        <v>5606</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>767.3</v>
+        <v>3.55</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>8846</v>
+        <v>7159</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>1030.4</v>
+        <v>3.09</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>72.58</v>
+        <v>0.34</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>575</v>
+        <v>462</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>75.73</v>
+        <v>0.34</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>4873</v>
+        <v>4822</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>459</v>
+        <v>2.08</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3670</v>
+        <v>5565</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>836.3200000000001</v>
+        <v>3.06</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29467.8</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88403.40000000001</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1503</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60386.4</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5774.400000000001</v>
+        <v>1443.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57123</v>
+        <v>11424.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88403.40000000001</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>117871.2</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117871.2</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6012</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>88403.40000000001</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25736.4</v>
+        <v>51472.8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11424.6</v>
+        <v>57123</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3470.4</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33750</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16693.2</v>
+        <v>33386.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1321.2</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20109.6</v>
+        <v>5027.400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_Lumpy.xlsx
+++ b/Instances/05_Lumpy.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28606</v>
+        <v>23892</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>14.73</v>
+        <v>129.0980703473771</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>23729</v>
+        <v>22465</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>15.62</v>
+        <v>96.17207100859233</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1633</v>
+        <v>936</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.72</v>
+        <v>18.34010239079202</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>13595</v>
+        <v>11896</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>7.03</v>
+        <v>172.5925630054795</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>997</v>
+        <v>1158</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.59</v>
+        <v>16.94660231028161</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11498</v>
+        <v>9027</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>6.03</v>
+        <v>148.5209573407691</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>20089</v>
+        <v>13071</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>12.12</v>
+        <v>11.34134699050695</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>25972</v>
+        <v>16848</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>14.18</v>
+        <v>18.26122859934216</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>16957</v>
+        <v>20818</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>13.79</v>
+        <v>14.20261151549209</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>29095</v>
+        <v>19700</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>13.75</v>
+        <v>10.70873062073812</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29287</v>
+        <v>14017</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>11.06</v>
+        <v>9.630997103570397</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>29332</v>
+        <v>15036</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>13.46</v>
+        <v>18.26711484347198</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1107</v>
+        <v>962</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.77</v>
+        <v>0.8180048679074872</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>13652</v>
+        <v>12218</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>8.18</v>
+        <v>105.7112294861698</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>14966</v>
+        <v>10804</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>6.95</v>
+        <v>7.3061968920707</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>29797</v>
+        <v>13431</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>13.61</v>
+        <v>11.09571283765469</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1268</v>
+        <v>1045</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.54</v>
+        <v>0.6908336533778191</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>10082</v>
+        <v>10550</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>5.59</v>
+        <v>103.2912870763607</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>11670</v>
+        <v>6488</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>4.17</v>
+        <v>4.445023729364024</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>632</v>
+        <v>373</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.28</v>
+        <v>9.607764895488931</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>658</v>
+        <v>402</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.42</v>
+        <v>12.82902587295019</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5606</v>
+        <v>3219</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>3.55</v>
+        <v>92.63532303741913</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>7159</v>
+        <v>4753</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>3.09</v>
+        <v>91.12272430006018</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>772</v>
+        <v>636</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.34</v>
+        <v>12.28574753712896</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.34</v>
+        <v>7.626520671348672</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>4822</v>
+        <v>3021</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>2.08</v>
+        <v>80.39112260366844</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5565</v>
+        <v>5055</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>3.06</v>
+        <v>78.82011231056146</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>88403.40000000001</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>117871.2</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6012</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45289.8</v>
+        <v>60386.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1443.6</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11424.6</v>
+        <v>45698.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>117871.2</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>58935.6</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>147339</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>58935.6</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4509</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33199.2</v>
+        <v>66398.40000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15096.6</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4330.8</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57123</v>
+        <v>45698.4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4338</v>
+        <v>867.6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6750</v>
+        <v>33750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3132</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3303</v>
+        <v>2642.4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25588.8</v>
+        <v>19191.6</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Lumpy.xlsx
+++ b/Instances/05_Lumpy.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>23892</v>
+        <v>19486</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>129.0980703473771</v>
+        <v>6.79976139086751</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>22465</v>
+        <v>20753</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>96.17207100859233</v>
+        <v>5.378481747912684</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>936</v>
+        <v>649</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>18.34010239079202</v>
+        <v>0.9844366092644529</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11896</v>
+        <v>6767</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>172.5925630054795</v>
+        <v>9.41194957942596</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1158</v>
+        <v>1099</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>16.94660231028161</v>
+        <v>1.460689144656807</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9027</v>
+        <v>8007</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>148.5209573407691</v>
+        <v>10.63853323681045</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>13071</v>
+        <v>14625</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>11.34134699050695</v>
+        <v>0.7420638007753556</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>16848</v>
+        <v>21433</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>18.26122859934216</v>
+        <v>1.001429294479919</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>20818</v>
+        <v>24024</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>14.20261151549209</v>
+        <v>1.04819621250154</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>19700</v>
+        <v>18514</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>10.70873062073812</v>
+        <v>0.616207150393705</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>14017</v>
+        <v>13044</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>9.630997103570397</v>
+        <v>0.7231461893825413</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>15036</v>
+        <v>12801</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>18.26711484347198</v>
+        <v>0.9769775126514298</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>962</v>
+        <v>832</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8180048679074872</v>
+        <v>0.04754799365172958</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>12218</v>
+        <v>8070</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>105.7112294861698</v>
+        <v>5.206144072962824</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>10804</v>
+        <v>10323</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>7.3061968920707</v>
+        <v>0.4668095933087505</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>13431</v>
+        <v>24349</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>11.09571283765469</v>
+        <v>0.7917597938272762</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1045</v>
+        <v>726</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6908336533778191</v>
+        <v>0.05332213237292106</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>10550</v>
+        <v>6700</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>103.2912870763607</v>
+        <v>5.560541356426466</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6488</v>
+        <v>7786</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>4.445023729364024</v>
+        <v>0.2557479080672937</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>373</v>
+        <v>498</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>9.607764895488931</v>
+        <v>0.4838824308058657</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>12.82902587295019</v>
+        <v>0.7031035675877126</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3219</v>
+        <v>3045</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>92.63532303741913</v>
+        <v>5.261628688714669</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>4753</v>
+        <v>6225</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>91.12272430006018</v>
+        <v>6.770778161894381</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>636</v>
+        <v>490</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>12.28574753712896</v>
+        <v>0.6033655243998145</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>7.626520671348672</v>
+        <v>0.6134292523373626</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3021</v>
+        <v>2424</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>80.39112260366844</v>
+        <v>4.065076914877844</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5055</v>
+        <v>4412</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>78.82011231056146</v>
+        <v>5.401212683064886</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>117871.2</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88403.40000000001</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3006</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60386.4</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7218</v>
+        <v>4330.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45698.4</v>
+        <v>22849.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29467.8</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>58935.6</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29467.8</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1503</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66398.40000000001</v>
+        <v>82998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45289.8</v>
+        <v>60386.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7218</v>
+        <v>2887.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45698.4</v>
+        <v>22849.2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>867.6</v>
+        <v>3470.4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33750</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33386.4</v>
+        <v>25039.8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2642.4</v>
+        <v>660.6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>

--- a/Instances/05_Lumpy.xlsx
+++ b/Instances/05_Lumpy.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19486</v>
+        <v>81663</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>6.79976139086751</v>
+        <v>59.31420792768085</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>20753</v>
+        <v>81663</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>5.378481747912684</v>
+        <v>53.75640179674156</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>649</v>
+        <v>4132</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9844366092644529</v>
+        <v>8.259612447618055</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6767</v>
+        <v>41798</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>9.41194957942596</v>
+        <v>108.460280596074</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1099</v>
+        <v>3968</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>1.460689144656807</v>
+        <v>9.052226732030849</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8007</v>
+        <v>31616</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>10.63853323681045</v>
+        <v>95.85208811537586</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>14625</v>
+        <v>81663</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7420638007753556</v>
+        <v>6.197039386879482</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>21433</v>
+        <v>81663</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>1.001429294479919</v>
+        <v>9.693997641667313</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>24024</v>
+        <v>81663</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>1.04819621250154</v>
+        <v>7.315745371067533</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>18514</v>
+        <v>81663</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.616207150393705</v>
+        <v>5.317563700557744</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>13044</v>
+        <v>81663</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7231461893825413</v>
+        <v>4.725491011124585</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12801</v>
+        <v>81663</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9769775126514298</v>
+        <v>8.309977838600487</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>832</v>
+        <v>4132</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04754799365172958</v>
+        <v>0.3773414923545056</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>8070</v>
+        <v>45966</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>5.206144072962824</v>
+        <v>52.15776010361635</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>10323</v>
+        <v>41798</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4668095933087505</v>
+        <v>4.009249203873071</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24349</v>
+        <v>81663</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7917597938272762</v>
+        <v>6.478475415335243</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>726</v>
+        <v>3968</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05332213237292106</v>
+        <v>0.4065227102245188</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6700</v>
+        <v>35618</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>5.560541356426466</v>
+        <v>43.88471983142951</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>7786</v>
+        <v>31616</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2557479080672937</v>
+        <v>2.469412840870054</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>498</v>
+        <v>1738</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4838824308058657</v>
+        <v>3.319796535799777</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>395</v>
+        <v>2378</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7031035675877126</v>
+        <v>6.77088265183017</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3045</v>
+        <v>18659</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>5.261628688714669</v>
+        <v>41.36652023166003</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>6225</v>
+        <v>23083</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>6.770778161894381</v>
+        <v>61.74315588426661</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>490</v>
+        <v>2144</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6033655243998145</v>
+        <v>6.212697838781984</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>484</v>
+        <v>1807</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6134292523373626</v>
+        <v>5.11680821017974</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2424</v>
+        <v>13886</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>4.065076914877844</v>
+        <v>44.52143824089936</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>4412</v>
+        <v>17681</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>5.401212683064886</v>
+        <v>48.22175270998834</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45289.8</v>
+        <v>15096.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4330.8</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22849.2</v>
+        <v>57123</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>58935.6</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88403.40000000001</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29467.8</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82998</v>
+        <v>33199.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60386.4</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2887.2</v>
+        <v>4330.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>51472.8</v>
+        <v>25736.4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22849.2</v>
+        <v>11424.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1270.8</v>
+        <v>2541.6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3470.4</v>
+        <v>1735.2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>20250</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25039.8</v>
+        <v>16693.2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3915</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>660.6</v>
+        <v>2642.4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5027.400000000001</v>
+        <v>15082.2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19191.6</v>
+        <v>31986</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Lumpy.xlsx
+++ b/Instances/05_Lumpy.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>59.31420792768085</v>
+        <v>69.61767749999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>81663</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>53.75640179674156</v>
+        <v>51.421311</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4132</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>8.259612447618055</v>
+        <v>10.543545</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41798</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>108.460280596074</v>
+        <v>104.7326625</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>9.052226732030849</v>
+        <v>11.227599</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>31616</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>95.85208811537586</v>
+        <v>91.39680000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>6.197039386879482</v>
+        <v>5.893560000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>9.693997641667313</v>
+        <v>9.135017999999999</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>7.315745371067533</v>
+        <v>8.840339999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>5.317563700557744</v>
+        <v>6.261907500000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>4.725491011124585</v>
+        <v>6.114568499999999</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>8.309977838600487</v>
+        <v>8.7666705</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4132</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3773414923545056</v>
+        <v>0.3870225</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>45966</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>52.15776010361635</v>
+        <v>58.14009900000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>41798</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>4.009249203873071</v>
+        <v>4.0383405</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81663</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>6.478475415335243</v>
+        <v>6.114568499999999</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4065227102245188</v>
+        <v>0.458343</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>35618</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>43.88471983142951</v>
+        <v>57.8103885</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>31616</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>2.469412840870054</v>
+        <v>2.513412</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1738</v>
+        <v>5296</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>3.319796535799777</v>
+        <v>4.6463625</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2378</v>
+        <v>7231</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>6.77088265183017</v>
+        <v>6.400718999999999</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>18659</v>
+        <v>56251</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>41.36652023166003</v>
+        <v>49.49437499999999</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>23083</v>
+        <v>69556</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>61.74315588426661</v>
+        <v>62.9124975</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2144</v>
+        <v>6526</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>6.212697838781984</v>
+        <v>6.371662500000001</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1807</v>
+        <v>5506</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>5.11680821017974</v>
+        <v>5.344254</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>13886</v>
+        <v>41896</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>44.52143824089936</v>
+        <v>42.21759150000001</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>17681</v>
+        <v>53311</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>48.22175270998834</v>
+        <v>54.34421399999999</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29467.8</v>
+        <v>654840</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>117871.2</v>
+        <v>327420</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4509</v>
+        <v>25050</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15096.6</v>
+        <v>83870</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7218</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57123</v>
+        <v>126940</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>117871.2</v>
+        <v>654840</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147339</v>
+        <v>327420</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29467.8</v>
+        <v>818550</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117871.2</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147339</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147339</v>
+        <v>491130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3006</v>
+        <v>41750</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33199.2</v>
+        <v>92220</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45289.8</v>
+        <v>83870</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>88403.40000000001</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4330.8</v>
+        <v>24060</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25736.4</v>
+        <v>71490</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11424.6</v>
+        <v>126940</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2541.6</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1735.2</v>
+        <v>14460</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20250</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16693.2</v>
+        <v>231850</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1566</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2642.4</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15082.2</v>
+        <v>83790</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31986</v>
+        <v>71080</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Lumpy.xlsx
+++ b/Instances/05_Lumpy.xlsx
@@ -3052,7 +3052,7 @@
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>69.61767749999999</v>
+        <v>37.129428</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>51.421311</v>
+        <v>27.4246992</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>10.543545</v>
+        <v>5.623224</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>104.7326625</v>
+        <v>55.85742</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>11.227599</v>
+        <v>5.988052799999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>91.39680000000001</v>
+        <v>48.74496000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3226,7 +3226,7 @@
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>5.893560000000001</v>
+        <v>3.143232000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3255,7 +3255,7 @@
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>9.135017999999999</v>
+        <v>4.8720096</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3284,7 +3284,7 @@
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>8.840339999999999</v>
+        <v>4.714848</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3313,7 +3313,7 @@
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>6.261907500000001</v>
+        <v>3.339684000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3342,7 +3342,7 @@
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>6.114568499999999</v>
+        <v>3.2611032</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3371,7 +3371,7 @@
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>8.7666705</v>
+        <v>4.6755576</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3400,7 +3400,7 @@
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3870225</v>
+        <v>0.206412</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3429,7 +3429,7 @@
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>58.14009900000001</v>
+        <v>31.0080528</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0383405</v>
+        <v>2.1537816</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3487,7 +3487,7 @@
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>6.114568499999999</v>
+        <v>3.2611032</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.458343</v>
+        <v>0.2444496</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3545,7 +3545,7 @@
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>57.8103885</v>
+        <v>30.8322072</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>2.513412</v>
+        <v>1.3404864</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5296</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>4.6463625</v>
+        <v>2.47806</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>7231</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>6.400718999999999</v>
+        <v>3.4137168</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>56251</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>49.49437499999999</v>
+        <v>26.397</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>69556</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>62.9124975</v>
+        <v>33.553332</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>6526</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>6.371662500000001</v>
+        <v>3.398220000000001</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>5506</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>5.344254</v>
+        <v>2.8502688</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41896</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>42.21759150000001</v>
+        <v>22.51604880000001</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>53311</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>54.34421399999999</v>
+        <v>28.9835808</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>654840</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25050</v>
+        <v>41750</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83870</v>
+        <v>335480</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>126940</v>
+        <v>253880</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654840</v>
+        <v>327420</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>327420</v>
+        <v>491130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818550</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491130</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41750</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>92220</v>
+        <v>461100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83870</v>
+        <v>167740</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>163710</v>
+        <v>818550</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24060</v>
+        <v>40100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>71490</v>
+        <v>214470</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>126940</v>
+        <v>317350</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14460</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>231850</v>
+        <v>46370</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4350</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83790</v>
+        <v>111720</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>71080</v>
+        <v>142160</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
